--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/03.XNBH/XNBH_ThanhTamNhaTrang_280525.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/03.XNBH/XNBH_ThanhTamNhaTrang_280525.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang5\03.XNBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F82FBE-28C8-4AC6-B6B6-C04FDB7E1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E2FB95-E1BE-47BA-A368-80E907FAD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3105" windowWidth="27870" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -111,14 +111,7 @@
     <t>ID/IMEI</t>
   </si>
   <si>
-    <t>phiên bản ESIM: 0845834415</t>
-  </si>
-  <si>
     <t>Đặng Ngọc Mai</t>
-  </si>
-  <si>
-    <t>Đổi bảo hành, thiết bị 
-cũ giữ lại kiểm tra</t>
   </si>
   <si>
     <t>Thường xuyên mất tín hiệu 
@@ -146,12 +139,6 @@
     <t>006011074333154</t>
   </si>
   <si>
-    <t>Thiết bị thường xuyên bị reset lại</t>
-  </si>
-  <si>
-    <t>Đổi mới</t>
-  </si>
-  <si>
     <t>Phần cứng</t>
   </si>
   <si>
@@ -167,7 +154,22 @@
     <t>phiên bản ESIM: 0842462134</t>
   </si>
   <si>
-    <t>phiên bản ESIM: 084</t>
+    <t>phiên bản ESIM: 0846351497</t>
+  </si>
+  <si>
+    <t>phiên bản ESIM: 0849437723</t>
+  </si>
+  <si>
+    <t>phiên bản ESIM: 0842461896</t>
+  </si>
+  <si>
+    <t>phiên bản ESIM: 0842461749</t>
+  </si>
+  <si>
+    <t>Thiết bị thường xuyên bị reset lại và mất tín hiệu</t>
+  </si>
+  <si>
+    <t>Đổi bảo hành</t>
   </si>
 </sst>
 </file>
@@ -557,107 +559,107 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1024,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1045,69 +1047,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="41" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="44" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -1121,39 +1123,39 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -1163,13 +1165,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1179,15 +1181,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -1219,165 +1221,165 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>35</v>
+      <c r="C13" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>41</v>
+      <c r="H13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>36</v>
+      <c r="C14" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>41</v>
+      <c r="H14" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>37</v>
+      <c r="C15" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="66" t="s">
         <v>41</v>
       </c>
+      <c r="G15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63">
+      <c r="A16" s="34">
         <v>4</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="64" t="s">
-        <v>38</v>
+      <c r="C16" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="66" t="s">
-        <v>41</v>
+      <c r="G16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63">
+      <c r="A17" s="34">
         <v>5</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="66" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63">
+      <c r="A18" s="34">
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="66" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1396,45 +1398,45 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="G20" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="58" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="58"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="62" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="61" t="s">
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="61"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
@@ -1481,33 +1483,45 @@
       <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="59"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="41"/>
       <c r="J27" s="10"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H27:I27"/>
@@ -1518,18 +1532,6 @@
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:I11"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
